--- a/biology/Zoologie/Gobemouche_à_collier/Gobemouche_à_collier.xlsx
+++ b/biology/Zoologie/Gobemouche_à_collier/Gobemouche_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_collier</t>
+          <t>Gobemouche_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficedula albicollis
 Le Gobe-Mouche à collier (Ficedula albicollis) appartient aux passereaux cavernicoles de la famille des Muscicapidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_collier</t>
+          <t>Gobemouche_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>État des populations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce considérée comme bioindicatrice de certains habitats, dont les populations ont été en augmentation (ou restauration) dans les forêts européennes d'Europe centrale et de l'Est de 1980 à 1996. Elles ont chuté de 1996 à 2000 pour remonter à leur niveau antérieur en 2005. L'espèce est plus rare en Europe de l'Ouest, et en progression de 1998 à 2004[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce considérée comme bioindicatrice de certains habitats, dont les populations ont été en augmentation (ou restauration) dans les forêts européennes d'Europe centrale et de l'Est de 1980 à 1996. Elles ont chuté de 1996 à 2000 pour remonter à leur niveau antérieur en 2005. L'espèce est plus rare en Europe de l'Ouest, et en progression de 1998 à 2004
 </t>
         </is>
       </c>
